--- a/Fed_Test.xlsx
+++ b/Fed_Test.xlsx
@@ -414,16 +414,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.244424206018448</v>
+        <v>2.163337039155352</v>
       </c>
       <c r="C2">
-        <v>66.20649881362915</v>
+        <v>37.2883719718758</v>
       </c>
       <c r="D2">
-        <v>810612.0626112223</v>
+        <v>550.0818816156145</v>
       </c>
       <c r="E2">
-        <v>60.8</v>
+        <v>20.60111464968153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.071197424829006</v>
+        <v>1.59215455362592</v>
       </c>
       <c r="C3">
-        <v>65.5004150390625</v>
+        <v>43.48097877430718</v>
       </c>
       <c r="D3">
-        <v>9.537643003463746</v>
+        <v>2.446144555404687</v>
       </c>
       <c r="E3">
-        <v>66.3</v>
+        <v>24.5750398089172</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.047549714148045</v>
+        <v>1.512004521659043</v>
       </c>
       <c r="C4">
-        <v>66.5562858581543</v>
+        <v>46.56885593959004</v>
       </c>
       <c r="D4">
-        <v>5.69711549282074</v>
+        <v>2.497245312951932</v>
       </c>
       <c r="E4">
-        <v>66.3</v>
+        <v>25.35031847133758</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.121528458595276</v>
+        <v>1.457970037691469</v>
       </c>
       <c r="C5">
-        <v>66.77142553329467</v>
+        <v>48.32896999300252</v>
       </c>
       <c r="D5">
-        <v>5.484109914302826</v>
+        <v>2.297229558115552</v>
       </c>
       <c r="E5">
-        <v>62.4</v>
+        <v>27.05911624203821</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9804910019040107</v>
+        <v>1.399465373797267</v>
       </c>
       <c r="C6">
-        <v>66.96437072753906</v>
+        <v>50.70602749388115</v>
       </c>
       <c r="D6">
-        <v>5.017388141155243</v>
+        <v>2.27767809682591</v>
       </c>
       <c r="E6">
-        <v>60.15</v>
+        <v>27.32583598726115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9379891008138657</v>
+        <v>1.37180528536143</v>
       </c>
       <c r="C7">
-        <v>67.15021324157715</v>
+        <v>51.44901924566447</v>
       </c>
       <c r="D7">
-        <v>1.457198619842529</v>
+        <v>2.353800015844357</v>
       </c>
       <c r="E7">
-        <v>66.3</v>
+        <v>28.73507165605096</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9496813461184501</v>
+        <v>1.325413799256074</v>
       </c>
       <c r="C8">
-        <v>67.31149415969848</v>
+        <v>53.16984951744583</v>
       </c>
       <c r="D8">
-        <v>3.776315522193909</v>
+        <v>2.207491002265056</v>
       </c>
       <c r="E8">
-        <v>63.25</v>
+        <v>31.00716560509554</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8995548322796821</v>
+        <v>1.300752964510156</v>
       </c>
       <c r="C9">
-        <v>67.70537443161011</v>
+        <v>53.96545121877803</v>
       </c>
       <c r="D9">
-        <v>1.059181010723114</v>
+        <v>2.233670786915312</v>
       </c>
       <c r="E9">
-        <v>66.59999999999999</v>
+        <v>30.71457006369427</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8837394014000892</v>
+        <v>1.276723900183934</v>
       </c>
       <c r="C10">
-        <v>67.20407228469848</v>
+        <v>55.06276283348295</v>
       </c>
       <c r="D10">
-        <v>0.972111451625824</v>
+        <v>2.197206238880279</v>
       </c>
       <c r="E10">
-        <v>64.90000000000001</v>
+        <v>32.10290605095541</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,16 +567,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.8782308176159859</v>
+        <v>1.232922226627009</v>
       </c>
       <c r="C11">
-        <v>67.36269006729125</v>
+        <v>56.54404732163084</v>
       </c>
       <c r="D11">
-        <v>0.955717658996582</v>
+        <v>2.21389469485374</v>
       </c>
       <c r="E11">
-        <v>67.2</v>
+        <v>32.29100318471338</v>
       </c>
     </row>
   </sheetData>
